--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -340,14 +340,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
